--- a/InterlockingDemo/Datas/Sections.xlsx
+++ b/InterlockingDemo/Datas/Sections.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,19 +9,390 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信号机-X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅡG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信号机-S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-X4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅡBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节2+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节4+D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12DG-定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅠG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12DG-反位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节12+14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节4+D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节4+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14DG-反位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节12+14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14DG-定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节8+14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节12+XⅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2DG-定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2DG-反位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节2+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4DG-定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4DG-反位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6DG-定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节6+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6DG-反位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节6+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8DG-定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8DG-反位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10DG-定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节2-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10DG-反位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅡAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1DG-定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节1+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1DG-反位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节1+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3DG-定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节3+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3DG-反位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5DG-定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-SⅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5DG-反位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7DG-定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7DG-反位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘节3+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,19 +415,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +514,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +722,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="31.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="31.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>